--- a/dataanalysis/data/predictions/1400/08251421_1422.xlsx
+++ b/dataanalysis/data/predictions/1400/08251421_1422.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="184">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-25</t>
   </si>
   <si>
@@ -563,12 +566,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -926,13 +923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AI100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,19 +1032,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>12.74</v>
@@ -1065,7 +1065,7 @@
         <v>90553.83</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1106,8 +1106,23 @@
       <c r="W2">
         <v>0.78</v>
       </c>
+      <c r="X2">
+        <v>-1.97</v>
+      </c>
+      <c r="Y2">
+        <v>12.38</v>
+      </c>
+      <c r="Z2">
+        <v>2.15</v>
+      </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1115,22 +1130,25 @@
       <c r="AG2">
         <v>0.8161829113960266</v>
       </c>
-      <c r="AH2" t="s">
-        <v>183</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.07</v>
@@ -1148,7 +1166,7 @@
         <v>863085.0600000001</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1189,8 +1207,23 @@
       <c r="W3">
         <v>-0.2</v>
       </c>
+      <c r="X3">
+        <v>0.92</v>
+      </c>
+      <c r="Y3">
+        <v>412.81</v>
+      </c>
+      <c r="Z3">
+        <v>4.1</v>
+      </c>
       <c r="AC3" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1198,22 +1231,25 @@
       <c r="AG3">
         <v>1.7851322889328</v>
       </c>
-      <c r="AH3" t="s">
-        <v>183</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300047</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2.49</v>
@@ -1231,7 +1267,7 @@
         <v>179704.28</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1272,8 +1308,23 @@
       <c r="W4">
         <v>-0.46</v>
       </c>
+      <c r="X4">
+        <v>0.77</v>
+      </c>
+      <c r="Y4">
+        <v>21.28</v>
+      </c>
+      <c r="Z4">
+        <v>9.970000000000001</v>
+      </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1281,22 +1332,25 @@
       <c r="AG4">
         <v>-1.035060167312622</v>
       </c>
-      <c r="AH4" t="s">
-        <v>183</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.21</v>
@@ -1314,7 +1368,7 @@
         <v>114268.54</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -1355,8 +1409,23 @@
       <c r="W5">
         <v>-0.44</v>
       </c>
+      <c r="X5">
+        <v>-4.07</v>
+      </c>
+      <c r="Y5">
+        <v>63.57</v>
+      </c>
+      <c r="Z5">
+        <v>0.05</v>
+      </c>
       <c r="AC5" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1364,22 +1433,25 @@
       <c r="AG5">
         <v>0.706544816493988</v>
       </c>
-      <c r="AH5" t="s">
-        <v>183</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4.15</v>
@@ -1397,7 +1469,7 @@
         <v>257150.98</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -1438,8 +1510,23 @@
       <c r="W6">
         <v>-3.66</v>
       </c>
+      <c r="X6">
+        <v>-6.14</v>
+      </c>
+      <c r="Y6">
+        <v>8.68</v>
+      </c>
+      <c r="Z6">
+        <v>-1.25</v>
+      </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1447,22 +1534,25 @@
       <c r="AG6">
         <v>-0.4751389920711517</v>
       </c>
-      <c r="AH6" t="s">
-        <v>183</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300113</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6.94</v>
@@ -1480,7 +1570,7 @@
         <v>284250.68</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1521,8 +1611,23 @@
       <c r="W7">
         <v>-1.38</v>
       </c>
+      <c r="X7">
+        <v>-0.42</v>
+      </c>
+      <c r="Y7">
+        <v>29.33</v>
+      </c>
+      <c r="Z7">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="AC7" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1530,22 +1635,25 @@
       <c r="AG7">
         <v>13.82957935333252</v>
       </c>
-      <c r="AH7" t="s">
-        <v>183</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300153</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-0.51</v>
@@ -1563,7 +1671,7 @@
         <v>180332.08</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1604,8 +1712,23 @@
       <c r="W8">
         <v>-0.59</v>
       </c>
+      <c r="X8">
+        <v>-1.36</v>
+      </c>
+      <c r="Y8">
+        <v>47.17</v>
+      </c>
+      <c r="Z8">
+        <v>0.43</v>
+      </c>
       <c r="AC8" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1613,22 +1736,25 @@
       <c r="AG8">
         <v>0.0362398624420166</v>
       </c>
-      <c r="AH8" t="s">
-        <v>183</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300158</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>6.8</v>
@@ -1646,7 +1772,7 @@
         <v>105517.18</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K9">
         <v>24</v>
@@ -1687,8 +1813,23 @@
       <c r="W9">
         <v>0.48</v>
       </c>
+      <c r="X9">
+        <v>5.12</v>
+      </c>
+      <c r="Y9">
+        <v>10.27</v>
+      </c>
+      <c r="Z9">
+        <v>14.75</v>
+      </c>
       <c r="AC9" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1696,22 +1837,25 @@
       <c r="AG9">
         <v>-3.403452157974243</v>
       </c>
-      <c r="AH9" t="s">
-        <v>183</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300184</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-2.11</v>
@@ -1729,7 +1873,7 @@
         <v>245564.57</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1770,8 +1914,23 @@
       <c r="W10">
         <v>-1.19</v>
       </c>
+      <c r="X10">
+        <v>-2.64</v>
+      </c>
+      <c r="Y10">
+        <v>12.56</v>
+      </c>
+      <c r="Z10">
+        <v>0.24</v>
+      </c>
       <c r="AC10" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1779,22 +1938,25 @@
       <c r="AG10">
         <v>21.77842903137207</v>
       </c>
-      <c r="AH10" t="s">
-        <v>183</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.33</v>
@@ -1812,7 +1974,7 @@
         <v>323604.43</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11">
         <v>20</v>
@@ -1853,8 +2015,23 @@
       <c r="W11">
         <v>-1.12</v>
       </c>
+      <c r="X11">
+        <v>-5.94</v>
+      </c>
+      <c r="Y11">
+        <v>28.94</v>
+      </c>
+      <c r="Z11">
+        <v>-0.14</v>
+      </c>
       <c r="AC11" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1862,22 +2039,25 @@
       <c r="AG11">
         <v>-1.536419868469238</v>
       </c>
-      <c r="AH11" t="s">
-        <v>183</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300224</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>8.24</v>
@@ -1895,7 +2075,7 @@
         <v>231607.27</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K12">
         <v>13</v>
@@ -1936,8 +2116,23 @@
       <c r="W12">
         <v>0.61</v>
       </c>
+      <c r="X12">
+        <v>-5.33</v>
+      </c>
+      <c r="Y12">
+        <v>19.19</v>
+      </c>
+      <c r="Z12">
+        <v>-1.94</v>
+      </c>
       <c r="AC12" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1945,22 +2140,25 @@
       <c r="AG12">
         <v>9.812678337097168</v>
       </c>
-      <c r="AH12" t="s">
-        <v>183</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300252</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>6.94</v>
@@ -1978,7 +2176,7 @@
         <v>123838.12</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -2019,8 +2217,23 @@
       <c r="W13">
         <v>1.38</v>
       </c>
+      <c r="X13">
+        <v>-3.54</v>
+      </c>
+      <c r="Y13">
+        <v>14.7</v>
+      </c>
+      <c r="Z13">
+        <v>1.45</v>
+      </c>
       <c r="AC13" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2028,22 +2241,25 @@
       <c r="AG13">
         <v>2.581644296646118</v>
       </c>
-      <c r="AH13" t="s">
-        <v>183</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.63</v>
@@ -2061,7 +2277,7 @@
         <v>131875</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -2102,8 +2318,23 @@
       <c r="W14">
         <v>0.15</v>
       </c>
+      <c r="X14">
+        <v>-3.23</v>
+      </c>
+      <c r="Y14">
+        <v>25.95</v>
+      </c>
+      <c r="Z14">
+        <v>0.86</v>
+      </c>
       <c r="AC14" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2111,22 +2342,25 @@
       <c r="AG14">
         <v>6.879717826843262</v>
       </c>
-      <c r="AH14" t="s">
-        <v>183</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300323</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.31</v>
@@ -2144,7 +2378,7 @@
         <v>80630.73</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2185,8 +2419,23 @@
       <c r="W15">
         <v>-0.44</v>
       </c>
+      <c r="X15">
+        <v>0.31</v>
+      </c>
+      <c r="Y15">
+        <v>10.07</v>
+      </c>
+      <c r="Z15">
+        <v>3.81</v>
+      </c>
       <c r="AC15" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2194,22 +2443,25 @@
       <c r="AG15">
         <v>2.757384538650513</v>
       </c>
-      <c r="AH15" t="s">
-        <v>183</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300324</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.89</v>
@@ -2227,7 +2479,7 @@
         <v>212490.05</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2268,8 +2520,23 @@
       <c r="W16">
         <v>-2.47</v>
       </c>
+      <c r="X16">
+        <v>-3.87</v>
+      </c>
+      <c r="Y16">
+        <v>6.14</v>
+      </c>
+      <c r="Z16">
+        <v>-1.44</v>
+      </c>
       <c r="AC16" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2277,22 +2544,25 @@
       <c r="AG16">
         <v>23.5008430480957</v>
       </c>
-      <c r="AH16" t="s">
-        <v>183</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300328</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.97</v>
@@ -2310,7 +2580,7 @@
         <v>245742.59</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2351,8 +2621,23 @@
       <c r="W17">
         <v>0.55</v>
       </c>
+      <c r="X17">
+        <v>-1.93</v>
+      </c>
+      <c r="Y17">
+        <v>19.78</v>
+      </c>
+      <c r="Z17">
+        <v>6.52</v>
+      </c>
       <c r="AC17" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2360,22 +2645,25 @@
       <c r="AG17">
         <v>-1.803004503250122</v>
       </c>
-      <c r="AH17" t="s">
-        <v>183</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300409</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.2</v>
@@ -2393,7 +2681,7 @@
         <v>171614.14</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2434,8 +2722,23 @@
       <c r="W18">
         <v>0.49</v>
       </c>
+      <c r="X18">
+        <v>-3.49</v>
+      </c>
+      <c r="Y18">
+        <v>22.79</v>
+      </c>
+      <c r="Z18">
+        <v>0.18</v>
+      </c>
       <c r="AC18" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2443,22 +2746,25 @@
       <c r="AG18">
         <v>11.91790771484375</v>
       </c>
-      <c r="AH18" t="s">
-        <v>184</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300436</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>8.66</v>
@@ -2476,7 +2782,7 @@
         <v>262744.73</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2517,8 +2823,23 @@
       <c r="W19">
         <v>-0.09</v>
       </c>
+      <c r="X19">
+        <v>-8.6</v>
+      </c>
+      <c r="Y19">
+        <v>156.22</v>
+      </c>
+      <c r="Z19">
+        <v>3.8</v>
+      </c>
       <c r="AC19" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2526,22 +2847,25 @@
       <c r="AG19">
         <v>4.618289470672607</v>
       </c>
-      <c r="AH19" t="s">
-        <v>183</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300469</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.38</v>
@@ -2559,7 +2883,7 @@
         <v>65322.35</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2600,8 +2924,23 @@
       <c r="W20">
         <v>-0.03</v>
       </c>
+      <c r="X20">
+        <v>6.41</v>
+      </c>
+      <c r="Y20">
+        <v>54.3</v>
+      </c>
+      <c r="Z20">
+        <v>8.49</v>
+      </c>
       <c r="AC20" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2609,22 +2948,25 @@
       <c r="AG20">
         <v>0.6239505410194397</v>
       </c>
-      <c r="AH20" t="s">
-        <v>183</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300478</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.56</v>
@@ -2642,7 +2984,7 @@
         <v>24822.59</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2683,8 +3025,23 @@
       <c r="W21">
         <v>-0.49</v>
       </c>
+      <c r="X21">
+        <v>-0.05</v>
+      </c>
+      <c r="Y21">
+        <v>20.5</v>
+      </c>
+      <c r="Z21">
+        <v>8.24</v>
+      </c>
       <c r="AC21" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2692,22 +3049,25 @@
       <c r="AG21">
         <v>6.424823760986328</v>
       </c>
-      <c r="AH21" t="s">
-        <v>183</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300491</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>14.55</v>
@@ -2725,7 +3085,7 @@
         <v>92678.11</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2766,8 +3126,23 @@
       <c r="W22">
         <v>1.09</v>
       </c>
+      <c r="X22">
+        <v>1.67</v>
+      </c>
+      <c r="Y22">
+        <v>30.84</v>
+      </c>
+      <c r="Z22">
+        <v>4.72</v>
+      </c>
       <c r="AC22" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2775,22 +3150,25 @@
       <c r="AG22">
         <v>1.874222755432129</v>
       </c>
-      <c r="AH22" t="s">
-        <v>183</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300499</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.55</v>
@@ -2808,7 +3186,7 @@
         <v>282986.34</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K23">
         <v>9</v>
@@ -2849,8 +3227,23 @@
       <c r="W23">
         <v>0.2</v>
       </c>
+      <c r="X23">
+        <v>-4.25</v>
+      </c>
+      <c r="Y23">
+        <v>34.3</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
       <c r="AC23" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2858,22 +3251,25 @@
       <c r="AG23">
         <v>4.554775714874268</v>
       </c>
-      <c r="AH23" t="s">
-        <v>183</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300547</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>4.29</v>
@@ -2891,7 +3287,7 @@
         <v>166765.75</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -2932,8 +3328,23 @@
       <c r="W24">
         <v>1.34</v>
       </c>
+      <c r="X24">
+        <v>-3.5</v>
+      </c>
+      <c r="Y24">
+        <v>52.46</v>
+      </c>
+      <c r="Z24">
+        <v>0.9</v>
+      </c>
       <c r="AC24" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2941,22 +3352,25 @@
       <c r="AG24">
         <v>2.943842887878418</v>
       </c>
-      <c r="AH24" t="s">
-        <v>183</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300548</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>15.95</v>
@@ -2974,7 +3388,7 @@
         <v>322595.48</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K25">
         <v>30</v>
@@ -3015,8 +3429,23 @@
       <c r="W25">
         <v>0.6</v>
       </c>
+      <c r="X25">
+        <v>2.39</v>
+      </c>
+      <c r="Y25">
+        <v>124.9</v>
+      </c>
+      <c r="Z25">
+        <v>5.85</v>
+      </c>
       <c r="AC25" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3024,22 +3453,25 @@
       <c r="AG25">
         <v>-8.078607559204102</v>
       </c>
-      <c r="AH25" t="s">
-        <v>183</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300584</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>11.77</v>
@@ -3057,7 +3489,7 @@
         <v>96369.21000000001</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -3098,8 +3530,23 @@
       <c r="W26">
         <v>1.92</v>
       </c>
+      <c r="X26">
+        <v>-1.75</v>
+      </c>
+      <c r="Y26">
+        <v>58.87</v>
+      </c>
+      <c r="Z26">
+        <v>1.5</v>
+      </c>
       <c r="AC26" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3107,22 +3554,25 @@
       <c r="AG26">
         <v>0.4450974762439728</v>
       </c>
-      <c r="AH26" t="s">
-        <v>183</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300588</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>3.26</v>
@@ -3140,7 +3590,7 @@
         <v>39451.88</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3181,8 +3631,23 @@
       <c r="W27">
         <v>-0.43</v>
       </c>
+      <c r="X27">
+        <v>-2.17</v>
+      </c>
+      <c r="Y27">
+        <v>21.8</v>
+      </c>
+      <c r="Z27">
+        <v>2.73</v>
+      </c>
       <c r="AC27" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3190,22 +3655,25 @@
       <c r="AG27">
         <v>-8.937508583068848</v>
       </c>
-      <c r="AH27" t="s">
-        <v>183</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300598</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.61</v>
@@ -3223,7 +3691,7 @@
         <v>212185.84</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3264,8 +3732,23 @@
       <c r="W28">
         <v>-0.01</v>
       </c>
+      <c r="X28">
+        <v>1.09</v>
+      </c>
+      <c r="Y28">
+        <v>62.44</v>
+      </c>
+      <c r="Z28">
+        <v>2.53</v>
+      </c>
       <c r="AC28" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3273,22 +3756,25 @@
       <c r="AG28">
         <v>3.638514995574951</v>
       </c>
-      <c r="AH28" t="s">
-        <v>183</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300620</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>3.66</v>
@@ -3306,7 +3792,7 @@
         <v>262015.54</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -3347,8 +3833,23 @@
       <c r="W29">
         <v>0.16</v>
       </c>
+      <c r="X29">
+        <v>-3.52</v>
+      </c>
+      <c r="Y29">
+        <v>93.88</v>
+      </c>
+      <c r="Z29">
+        <v>1.97</v>
+      </c>
       <c r="AC29" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3356,22 +3857,25 @@
       <c r="AG29">
         <v>4.387030124664307</v>
       </c>
-      <c r="AH29" t="s">
-        <v>183</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300631</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>4.6</v>
@@ -3389,7 +3893,7 @@
         <v>83893.72</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3430,8 +3934,23 @@
       <c r="W30">
         <v>0.44</v>
       </c>
+      <c r="X30">
+        <v>-4.42</v>
+      </c>
+      <c r="Y30">
+        <v>36.29</v>
+      </c>
+      <c r="Z30">
+        <v>-0.79</v>
+      </c>
       <c r="AC30" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3439,22 +3958,25 @@
       <c r="AG30">
         <v>1.005534648895264</v>
       </c>
-      <c r="AH30" t="s">
-        <v>183</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300642</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>10.32</v>
@@ -3472,7 +3994,7 @@
         <v>65790.89</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3513,8 +4035,23 @@
       <c r="W31">
         <v>2.05</v>
       </c>
+      <c r="X31">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>32.8</v>
+      </c>
+      <c r="Z31">
+        <v>14.49</v>
+      </c>
       <c r="AC31" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3522,22 +4059,25 @@
       <c r="AG31">
         <v>-0.1364169418811798</v>
       </c>
-      <c r="AH31" t="s">
-        <v>183</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300683</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -3555,7 +4095,7 @@
         <v>97110.39999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3596,8 +4136,23 @@
       <c r="W32">
         <v>1.65</v>
       </c>
+      <c r="X32">
+        <v>-7.32</v>
+      </c>
+      <c r="Y32">
+        <v>61.76</v>
+      </c>
+      <c r="Z32">
+        <v>3.96</v>
+      </c>
       <c r="AC32" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3605,22 +4160,25 @@
       <c r="AG32">
         <v>17.9918098449707</v>
       </c>
-      <c r="AH32" t="s">
-        <v>184</v>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300686</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-3</v>
@@ -3638,7 +4196,7 @@
         <v>44451.78</v>
       </c>
       <c r="J33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3679,8 +4237,23 @@
       <c r="W33">
         <v>-0.48</v>
       </c>
+      <c r="X33">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>14.45</v>
+      </c>
+      <c r="Z33">
+        <v>11.67</v>
+      </c>
       <c r="AC33" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3688,22 +4261,25 @@
       <c r="AG33">
         <v>0.2090018540620804</v>
       </c>
-      <c r="AH33" t="s">
-        <v>183</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300701</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.32</v>
@@ -3721,7 +4297,7 @@
         <v>34814.12</v>
       </c>
       <c r="J34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3762,8 +4338,23 @@
       <c r="W34">
         <v>-0.24</v>
       </c>
+      <c r="X34">
+        <v>1.18</v>
+      </c>
+      <c r="Y34">
+        <v>13.48</v>
+      </c>
+      <c r="Z34">
+        <v>7.07</v>
+      </c>
       <c r="AC34" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3771,22 +4362,25 @@
       <c r="AG34">
         <v>6.424400806427002</v>
       </c>
-      <c r="AH34" t="s">
-        <v>183</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300724</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.11</v>
@@ -3804,7 +4398,7 @@
         <v>233951.23</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3845,8 +4439,23 @@
       <c r="W35">
         <v>0.03</v>
       </c>
+      <c r="X35">
+        <v>3.22</v>
+      </c>
+      <c r="Y35">
+        <v>89.98</v>
+      </c>
+      <c r="Z35">
+        <v>9.6</v>
+      </c>
       <c r="AC35" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3854,22 +4463,25 @@
       <c r="AG35">
         <v>3.859348297119141</v>
       </c>
-      <c r="AH35" t="s">
-        <v>183</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300727</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.5</v>
@@ -3887,7 +4499,7 @@
         <v>76743.61</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -3928,8 +4540,23 @@
       <c r="W36">
         <v>0.99</v>
       </c>
+      <c r="X36">
+        <v>-2.5</v>
+      </c>
+      <c r="Y36">
+        <v>39.85</v>
+      </c>
+      <c r="Z36">
+        <v>-0.67</v>
+      </c>
       <c r="AC36" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3937,22 +4564,25 @@
       <c r="AG36">
         <v>-0.1444346308708191</v>
       </c>
-      <c r="AH36" t="s">
-        <v>184</v>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300730</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-6.07</v>
@@ -3970,7 +4600,7 @@
         <v>147399.91</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -4011,8 +4641,23 @@
       <c r="W37">
         <v>-1.93</v>
       </c>
+      <c r="X37">
+        <v>-0.67</v>
+      </c>
+      <c r="Y37">
+        <v>22.87</v>
+      </c>
+      <c r="Z37">
+        <v>2.65</v>
+      </c>
       <c r="AC37" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4020,22 +4665,25 @@
       <c r="AG37">
         <v>0.7099200487136841</v>
       </c>
-      <c r="AH37" t="s">
-        <v>183</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300740</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>4.78</v>
@@ -4053,7 +4701,7 @@
         <v>70580.06</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -4094,8 +4742,23 @@
       <c r="W38">
         <v>0.35</v>
       </c>
+      <c r="X38">
+        <v>10.34</v>
+      </c>
+      <c r="Y38">
+        <v>24.88</v>
+      </c>
+      <c r="Z38">
+        <v>15.72</v>
+      </c>
       <c r="AC38" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4103,22 +4766,25 @@
       <c r="AG38">
         <v>4.684879779815674</v>
       </c>
-      <c r="AH38" t="s">
-        <v>183</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300748</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -4136,7 +4802,7 @@
         <v>558425.34</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -4177,8 +4843,23 @@
       <c r="W39">
         <v>1.85</v>
       </c>
+      <c r="X39">
+        <v>2.86</v>
+      </c>
+      <c r="Y39">
+        <v>39.48</v>
+      </c>
+      <c r="Z39">
+        <v>8.58</v>
+      </c>
       <c r="AC39" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4186,22 +4867,25 @@
       <c r="AG39">
         <v>1.592099905014038</v>
       </c>
-      <c r="AH39" t="s">
-        <v>183</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300752</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.27</v>
@@ -4219,7 +4903,7 @@
         <v>60625.38</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4260,8 +4944,23 @@
       <c r="W40">
         <v>1.92</v>
       </c>
+      <c r="X40">
+        <v>-2.43</v>
+      </c>
+      <c r="Y40">
+        <v>27.76</v>
+      </c>
+      <c r="Z40">
+        <v>2.36</v>
+      </c>
       <c r="AC40" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4269,22 +4968,25 @@
       <c r="AG40">
         <v>2.212033987045288</v>
       </c>
-      <c r="AH40" t="s">
-        <v>183</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300757</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -4302,7 +5004,7 @@
         <v>397577.16</v>
       </c>
       <c r="J41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4343,8 +5045,23 @@
       <c r="W41">
         <v>0.68</v>
       </c>
+      <c r="X41">
+        <v>-0.87</v>
+      </c>
+      <c r="Y41">
+        <v>279.3</v>
+      </c>
+      <c r="Z41">
+        <v>3.31</v>
+      </c>
       <c r="AC41" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4352,22 +5069,25 @@
       <c r="AG41">
         <v>2.735034942626953</v>
       </c>
-      <c r="AH41" t="s">
-        <v>184</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300767</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.22</v>
@@ -4385,7 +5105,7 @@
         <v>110443.42</v>
       </c>
       <c r="J42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4426,8 +5146,23 @@
       <c r="W42">
         <v>0.3</v>
       </c>
+      <c r="X42">
+        <v>-0.4</v>
+      </c>
+      <c r="Y42">
+        <v>26.34</v>
+      </c>
+      <c r="Z42">
+        <v>5.23</v>
+      </c>
       <c r="AC42" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4435,22 +5170,25 @@
       <c r="AG42">
         <v>10.96853446960449</v>
       </c>
-      <c r="AH42" t="s">
-        <v>183</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300803</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.66</v>
@@ -4468,7 +5206,7 @@
         <v>1101126.66</v>
       </c>
       <c r="J43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -4509,8 +5247,23 @@
       <c r="W43">
         <v>-0.21</v>
       </c>
+      <c r="X43">
+        <v>8.43</v>
+      </c>
+      <c r="Y43">
+        <v>158.58</v>
+      </c>
+      <c r="Z43">
+        <v>8.25</v>
+      </c>
       <c r="AC43" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4518,22 +5271,25 @@
       <c r="AG43">
         <v>-6.694841384887695</v>
       </c>
-      <c r="AH43" t="s">
-        <v>183</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300806</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.27</v>
@@ -4551,7 +5307,7 @@
         <v>69726.67999999999</v>
       </c>
       <c r="J44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4592,8 +5348,23 @@
       <c r="W44">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X44">
+        <v>1.89</v>
+      </c>
+      <c r="Y44">
+        <v>26.87</v>
+      </c>
+      <c r="Z44">
+        <v>5.7</v>
+      </c>
       <c r="AC44" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4601,22 +5372,25 @@
       <c r="AG44">
         <v>-0.5440100431442261</v>
       </c>
-      <c r="AH44" t="s">
-        <v>183</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300811</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>6.03</v>
@@ -4634,7 +5408,7 @@
         <v>119626.29</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4675,8 +5449,23 @@
       <c r="W45">
         <v>0.08</v>
       </c>
+      <c r="X45">
+        <v>-3.75</v>
+      </c>
+      <c r="Y45">
+        <v>74.28</v>
+      </c>
+      <c r="Z45">
+        <v>2.24</v>
+      </c>
       <c r="AC45" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4684,22 +5473,25 @@
       <c r="AG45">
         <v>3.928628444671631</v>
       </c>
-      <c r="AH45" t="s">
-        <v>183</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300814</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>4.58</v>
@@ -4717,7 +5509,7 @@
         <v>74725.05</v>
       </c>
       <c r="J46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4758,8 +5550,23 @@
       <c r="W46">
         <v>0.44</v>
       </c>
+      <c r="X46">
+        <v>-2.69</v>
+      </c>
+      <c r="Y46">
+        <v>47.42</v>
+      </c>
+      <c r="Z46">
+        <v>0.89</v>
+      </c>
       <c r="AC46" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4767,22 +5574,25 @@
       <c r="AG46">
         <v>-0.5808876156806946</v>
       </c>
-      <c r="AH46" t="s">
-        <v>183</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300835</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>8.27</v>
@@ -4800,7 +5610,7 @@
         <v>65313.98</v>
       </c>
       <c r="J47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K47">
         <v>25</v>
@@ -4841,8 +5651,23 @@
       <c r="W47">
         <v>-0.17</v>
       </c>
+      <c r="X47">
+        <v>-4.34</v>
+      </c>
+      <c r="Y47">
+        <v>65.8</v>
+      </c>
+      <c r="Z47">
+        <v>-0.11</v>
+      </c>
       <c r="AC47" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4850,22 +5675,25 @@
       <c r="AG47">
         <v>6.953166007995605</v>
       </c>
-      <c r="AH47" t="s">
-        <v>183</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300843</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-5.03</v>
@@ -4883,7 +5711,7 @@
         <v>92674.72</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -4924,8 +5752,23 @@
       <c r="W48">
         <v>-0.87</v>
       </c>
+      <c r="X48">
+        <v>-3.08</v>
+      </c>
+      <c r="Y48">
+        <v>55.98</v>
+      </c>
+      <c r="Z48">
+        <v>4.11</v>
+      </c>
       <c r="AC48" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4933,22 +5776,25 @@
       <c r="AG48">
         <v>2.069662094116211</v>
       </c>
-      <c r="AH48" t="s">
-        <v>183</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300870</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-1.74</v>
@@ -4966,7 +5812,7 @@
         <v>192099.52</v>
       </c>
       <c r="J49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -5007,8 +5853,23 @@
       <c r="W49">
         <v>-0.19</v>
       </c>
+      <c r="X49">
+        <v>-5.35</v>
+      </c>
+      <c r="Y49">
+        <v>269.6</v>
+      </c>
+      <c r="Z49">
+        <v>2.09</v>
+      </c>
       <c r="AC49" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5016,22 +5877,25 @@
       <c r="AG49">
         <v>4.933794498443604</v>
       </c>
-      <c r="AH49" t="s">
-        <v>183</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300893</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.9</v>
@@ -5049,7 +5913,7 @@
         <v>32144.36</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5090,8 +5954,23 @@
       <c r="W50">
         <v>-0.42</v>
       </c>
+      <c r="X50">
+        <v>1.62</v>
+      </c>
+      <c r="Y50">
+        <v>32.58</v>
+      </c>
+      <c r="Z50">
+        <v>1.46</v>
+      </c>
       <c r="AC50" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5099,22 +5978,25 @@
       <c r="AG50">
         <v>2.148457288742065</v>
       </c>
-      <c r="AH50" t="s">
-        <v>183</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300913</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.65</v>
@@ -5132,7 +6014,7 @@
         <v>116334.59</v>
       </c>
       <c r="J51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -5173,8 +6055,23 @@
       <c r="W51">
         <v>-0.37</v>
       </c>
+      <c r="X51">
+        <v>-3.48</v>
+      </c>
+      <c r="Y51">
+        <v>61.41</v>
+      </c>
+      <c r="Z51">
+        <v>1.02</v>
+      </c>
       <c r="AC51" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5182,22 +6079,25 @@
       <c r="AG51">
         <v>4.798432350158691</v>
       </c>
-      <c r="AH51" t="s">
-        <v>183</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300991</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>13.76</v>
@@ -5215,7 +6115,7 @@
         <v>102628.64</v>
       </c>
       <c r="J52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5256,8 +6156,23 @@
       <c r="W52">
         <v>1.31</v>
       </c>
+      <c r="X52">
+        <v>-3</v>
+      </c>
+      <c r="Y52">
+        <v>44.99</v>
+      </c>
+      <c r="Z52">
+        <v>4.07</v>
+      </c>
       <c r="AC52" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5265,22 +6180,25 @@
       <c r="AG52">
         <v>-1.271414160728455</v>
       </c>
-      <c r="AH52" t="s">
-        <v>183</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301002</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.91</v>
@@ -5298,7 +6216,7 @@
         <v>28718.03</v>
       </c>
       <c r="J53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5339,8 +6257,23 @@
       <c r="W53">
         <v>1.22</v>
       </c>
+      <c r="X53">
+        <v>1.23</v>
+      </c>
+      <c r="Y53">
+        <v>34.25</v>
+      </c>
+      <c r="Z53">
+        <v>7.3</v>
+      </c>
       <c r="AC53" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5348,22 +6281,25 @@
       <c r="AG53">
         <v>3.395785331726074</v>
       </c>
-      <c r="AH53" t="s">
-        <v>183</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301007</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>4.36</v>
@@ -5381,7 +6317,7 @@
         <v>56624.15</v>
       </c>
       <c r="J54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K54">
         <v>9</v>
@@ -5422,8 +6358,23 @@
       <c r="W54">
         <v>-0.82</v>
       </c>
+      <c r="X54">
+        <v>-1.11</v>
+      </c>
+      <c r="Y54">
+        <v>48.33</v>
+      </c>
+      <c r="Z54">
+        <v>-0.08</v>
+      </c>
       <c r="AC54" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5431,22 +6382,25 @@
       <c r="AG54">
         <v>2.740960359573364</v>
       </c>
-      <c r="AH54" t="s">
-        <v>183</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301018</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>2.21</v>
@@ -5464,7 +6418,7 @@
         <v>120515.83</v>
       </c>
       <c r="J55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K55">
         <v>9</v>
@@ -5505,8 +6459,23 @@
       <c r="W55">
         <v>0.78</v>
       </c>
+      <c r="X55">
+        <v>-4</v>
+      </c>
+      <c r="Y55">
+        <v>72.5</v>
+      </c>
+      <c r="Z55">
+        <v>2.55</v>
+      </c>
       <c r="AC55" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -5514,22 +6483,25 @@
       <c r="AG55">
         <v>8.921177864074707</v>
       </c>
-      <c r="AH55" t="s">
-        <v>184</v>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301041</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>2.05</v>
@@ -5547,7 +6519,7 @@
         <v>46400.81</v>
       </c>
       <c r="J56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5588,8 +6560,23 @@
       <c r="W56">
         <v>0.47</v>
       </c>
+      <c r="X56">
+        <v>-3.64</v>
+      </c>
+      <c r="Y56">
+        <v>32.99</v>
+      </c>
+      <c r="Z56">
+        <v>1.98</v>
+      </c>
       <c r="AC56" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5597,22 +6584,25 @@
       <c r="AG56">
         <v>10.60172462463379</v>
       </c>
-      <c r="AH56" t="s">
-        <v>183</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301052</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>1.1</v>
@@ -5630,7 +6620,7 @@
         <v>51385.95</v>
       </c>
       <c r="J57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5671,8 +6661,23 @@
       <c r="W57">
         <v>-0.22</v>
       </c>
+      <c r="X57">
+        <v>-3.1</v>
+      </c>
+      <c r="Y57">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="Z57">
+        <v>2.79</v>
+      </c>
       <c r="AC57" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5680,22 +6685,25 @@
       <c r="AG57">
         <v>5.083600997924805</v>
       </c>
-      <c r="AH57" t="s">
-        <v>183</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301095</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-2.44</v>
@@ -5713,7 +6721,7 @@
         <v>129287.31</v>
       </c>
       <c r="J58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K58">
         <v>19</v>
@@ -5754,8 +6762,23 @@
       <c r="W58">
         <v>-0.44</v>
       </c>
+      <c r="X58">
+        <v>-1.21</v>
+      </c>
+      <c r="Y58">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="Z58">
+        <v>1.3</v>
+      </c>
       <c r="AC58" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5763,22 +6786,25 @@
       <c r="AG58">
         <v>-5.753424167633057</v>
       </c>
-      <c r="AH58" t="s">
-        <v>183</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301123</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-0.44</v>
@@ -5796,7 +6822,7 @@
         <v>49534.77</v>
       </c>
       <c r="J59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K59">
         <v>15</v>
@@ -5837,8 +6863,23 @@
       <c r="W59">
         <v>-0.25</v>
       </c>
+      <c r="X59">
+        <v>-0.96</v>
+      </c>
+      <c r="Y59">
+        <v>47.28</v>
+      </c>
+      <c r="Z59">
+        <v>10.21</v>
+      </c>
       <c r="AC59" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5846,22 +6887,25 @@
       <c r="AG59">
         <v>0.7805150747299194</v>
       </c>
-      <c r="AH59" t="s">
-        <v>183</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301128</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>19.71</v>
@@ -5879,7 +6923,7 @@
         <v>153121.08</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K60">
         <v>9</v>
@@ -5920,8 +6964,23 @@
       <c r="W60">
         <v>0.55</v>
       </c>
+      <c r="X60">
+        <v>-11.93</v>
+      </c>
+      <c r="Y60">
+        <v>113.99</v>
+      </c>
+      <c r="Z60">
+        <v>-3.15</v>
+      </c>
       <c r="AC60" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5929,22 +6988,25 @@
       <c r="AG60">
         <v>25.07480049133301</v>
       </c>
-      <c r="AH60" t="s">
-        <v>183</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301165</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>2.27</v>
@@ -5962,7 +7024,7 @@
         <v>179320.74</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61">
         <v>10</v>
@@ -6003,8 +7065,23 @@
       <c r="W61">
         <v>-0.53</v>
       </c>
+      <c r="X61">
+        <v>-2.36</v>
+      </c>
+      <c r="Y61">
+        <v>92.12</v>
+      </c>
+      <c r="Z61">
+        <v>-0.09</v>
+      </c>
       <c r="AC61" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -6012,22 +7089,25 @@
       <c r="AG61">
         <v>1.525561213493347</v>
       </c>
-      <c r="AH61" t="s">
-        <v>183</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301183</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>2.77</v>
@@ -6045,7 +7125,7 @@
         <v>65874.3</v>
       </c>
       <c r="J62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -6086,8 +7166,23 @@
       <c r="W62">
         <v>1.43</v>
       </c>
+      <c r="X62">
+        <v>2.69</v>
+      </c>
+      <c r="Y62">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>4.27</v>
+      </c>
       <c r="AC62" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -6095,22 +7190,25 @@
       <c r="AG62">
         <v>3.135944366455078</v>
       </c>
-      <c r="AH62" t="s">
-        <v>184</v>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301202</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>6.17</v>
@@ -6128,7 +7226,7 @@
         <v>52792.24</v>
       </c>
       <c r="J63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6169,8 +7267,23 @@
       <c r="W63">
         <v>0.62</v>
       </c>
+      <c r="X63">
+        <v>-0.61</v>
+      </c>
+      <c r="Y63">
+        <v>55.35</v>
+      </c>
+      <c r="Z63">
+        <v>2.07</v>
+      </c>
       <c r="AC63" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6178,22 +7291,25 @@
       <c r="AG63">
         <v>1.660308241844177</v>
       </c>
-      <c r="AH63" t="s">
-        <v>183</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301205</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>6.02</v>
@@ -6211,7 +7327,7 @@
         <v>98244.81</v>
       </c>
       <c r="J64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6252,8 +7368,23 @@
       <c r="W64">
         <v>0.43</v>
       </c>
+      <c r="X64">
+        <v>4.48</v>
+      </c>
+      <c r="Y64">
+        <v>121.85</v>
+      </c>
+      <c r="Z64">
+        <v>6.01</v>
+      </c>
       <c r="AC64" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6261,22 +7392,25 @@
       <c r="AG64">
         <v>3.590807199478149</v>
       </c>
-      <c r="AH64" t="s">
-        <v>183</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301217</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>3.39</v>
@@ -6294,7 +7428,7 @@
         <v>211496.46</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K65">
         <v>36</v>
@@ -6335,8 +7469,23 @@
       <c r="W65">
         <v>-0.11</v>
       </c>
+      <c r="X65">
+        <v>-4.92</v>
+      </c>
+      <c r="Y65">
+        <v>35.6</v>
+      </c>
+      <c r="Z65">
+        <v>1.54</v>
+      </c>
       <c r="AC65" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6344,22 +7493,25 @@
       <c r="AG65">
         <v>-10.60340023040771</v>
       </c>
-      <c r="AH65" t="s">
-        <v>183</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301219</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>1.07</v>
@@ -6377,7 +7529,7 @@
         <v>73004.85000000001</v>
       </c>
       <c r="J66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6418,8 +7570,23 @@
       <c r="W66">
         <v>0.12</v>
       </c>
+      <c r="X66">
+        <v>-3.52</v>
+      </c>
+      <c r="Y66">
+        <v>68.88</v>
+      </c>
+      <c r="Z66">
+        <v>1.04</v>
+      </c>
       <c r="AC66" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6427,22 +7594,25 @@
       <c r="AG66">
         <v>3.071792840957642</v>
       </c>
-      <c r="AH66" t="s">
-        <v>183</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301345</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-1.29</v>
@@ -6460,7 +7630,7 @@
         <v>39578.42</v>
       </c>
       <c r="J67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6501,8 +7671,23 @@
       <c r="W67">
         <v>-0.13</v>
       </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>197</v>
+      </c>
+      <c r="Z67">
+        <v>2.46</v>
+      </c>
       <c r="AC67" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6510,22 +7695,25 @@
       <c r="AG67">
         <v>10.96164703369141</v>
       </c>
-      <c r="AH67" t="s">
-        <v>183</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301377</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>7.02</v>
@@ -6543,7 +7731,7 @@
         <v>96454.39</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K68">
         <v>11</v>
@@ -6584,8 +7772,23 @@
       <c r="W68">
         <v>-0.23</v>
       </c>
+      <c r="X68">
+        <v>2.74</v>
+      </c>
+      <c r="Y68">
+        <v>77.09</v>
+      </c>
+      <c r="Z68">
+        <v>5.83</v>
+      </c>
       <c r="AC68" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6593,22 +7796,25 @@
       <c r="AG68">
         <v>10.90094089508057</v>
       </c>
-      <c r="AH68" t="s">
-        <v>183</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301389</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>1.76</v>
@@ -6626,7 +7832,7 @@
         <v>79581.45</v>
       </c>
       <c r="J69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K69">
         <v>35</v>
@@ -6667,8 +7873,23 @@
       <c r="W69">
         <v>0.19</v>
       </c>
+      <c r="X69">
+        <v>-5.62</v>
+      </c>
+      <c r="Y69">
+        <v>54.54</v>
+      </c>
+      <c r="Z69">
+        <v>1.49</v>
+      </c>
       <c r="AC69" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6676,22 +7897,25 @@
       <c r="AG69">
         <v>6.069231986999512</v>
       </c>
-      <c r="AH69" t="s">
-        <v>183</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301392</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-2.82</v>
@@ -6709,7 +7933,7 @@
         <v>65395.6</v>
       </c>
       <c r="J70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6750,8 +7974,23 @@
       <c r="W70">
         <v>-0.4</v>
       </c>
+      <c r="X70">
+        <v>-3.94</v>
+      </c>
+      <c r="Y70">
+        <v>185.99</v>
+      </c>
+      <c r="Z70">
+        <v>0.63</v>
+      </c>
       <c r="AC70" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6759,22 +7998,25 @@
       <c r="AG70">
         <v>4.590784072875977</v>
       </c>
-      <c r="AH70" t="s">
-        <v>183</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301397</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>9.279999999999999</v>
@@ -6792,7 +8034,7 @@
         <v>53845.38</v>
       </c>
       <c r="J71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K71">
         <v>13</v>
@@ -6833,8 +8075,23 @@
       <c r="W71">
         <v>1.57</v>
       </c>
+      <c r="X71">
+        <v>-6.59</v>
+      </c>
+      <c r="Y71">
+        <v>47.5</v>
+      </c>
+      <c r="Z71">
+        <v>-0.13</v>
+      </c>
       <c r="AC71" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6842,22 +8099,25 @@
       <c r="AG71">
         <v>4.250131607055664</v>
       </c>
-      <c r="AH71" t="s">
-        <v>183</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301413</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>10.05</v>
@@ -6875,7 +8135,7 @@
         <v>69702.23</v>
       </c>
       <c r="J72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6916,8 +8176,23 @@
       <c r="W72">
         <v>-0.03</v>
       </c>
+      <c r="X72">
+        <v>-3.3</v>
+      </c>
+      <c r="Y72">
+        <v>126</v>
+      </c>
+      <c r="Z72">
+        <v>0.66</v>
+      </c>
       <c r="AC72" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6925,22 +8200,25 @@
       <c r="AG72">
         <v>1.645545363426208</v>
       </c>
-      <c r="AH72" t="s">
-        <v>183</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301486</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>4.78</v>
@@ -6958,7 +8236,7 @@
         <v>116609.7</v>
       </c>
       <c r="J73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -6999,8 +8277,23 @@
       <c r="W73">
         <v>-0.7</v>
       </c>
+      <c r="X73">
+        <v>-3.44</v>
+      </c>
+      <c r="Y73">
+        <v>96.38</v>
+      </c>
+      <c r="Z73">
+        <v>0.2</v>
+      </c>
       <c r="AC73" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -7008,22 +8301,25 @@
       <c r="AG73">
         <v>3.523277997970581</v>
       </c>
-      <c r="AH73" t="s">
-        <v>183</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301489</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-4.6</v>
@@ -7041,7 +8337,7 @@
         <v>101470.31</v>
       </c>
       <c r="J74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K74">
         <v>18</v>
@@ -7082,8 +8378,23 @@
       <c r="W74">
         <v>0.29</v>
       </c>
+      <c r="X74">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>185</v>
+      </c>
+      <c r="Z74">
+        <v>0.43</v>
+      </c>
       <c r="AC74" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7091,22 +8402,25 @@
       <c r="AG74">
         <v>5.492025852203369</v>
       </c>
-      <c r="AH74" t="s">
-        <v>183</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301526</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>2.62</v>
@@ -7124,7 +8438,7 @@
         <v>131605.77</v>
       </c>
       <c r="J75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K75">
         <v>13</v>
@@ -7165,8 +8479,23 @@
       <c r="W75">
         <v>-0.4</v>
       </c>
+      <c r="X75">
+        <v>2.54</v>
+      </c>
+      <c r="Y75">
+        <v>7.56</v>
+      </c>
+      <c r="Z75">
+        <v>13.68</v>
+      </c>
       <c r="AC75" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7174,22 +8503,25 @@
       <c r="AG75">
         <v>58.1186637878418</v>
       </c>
-      <c r="AH75" t="s">
-        <v>183</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301617</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>9.18</v>
@@ -7207,7 +8539,7 @@
         <v>60358.43</v>
       </c>
       <c r="J76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7248,8 +8580,23 @@
       <c r="W76">
         <v>0.46</v>
       </c>
+      <c r="X76">
+        <v>1.37</v>
+      </c>
+      <c r="Y76">
+        <v>56</v>
+      </c>
+      <c r="Z76">
+        <v>5.32</v>
+      </c>
       <c r="AC76" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7257,22 +8604,25 @@
       <c r="AG76">
         <v>67.91054534912109</v>
       </c>
-      <c r="AH76" t="s">
-        <v>183</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688020</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>12.09</v>
@@ -7290,7 +8640,7 @@
         <v>46018.99</v>
       </c>
       <c r="J77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7331,8 +8681,23 @@
       <c r="W77">
         <v>0.48</v>
       </c>
+      <c r="X77">
+        <v>5.99</v>
+      </c>
+      <c r="Y77">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>11.44</v>
+      </c>
       <c r="AC77" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7340,22 +8705,25 @@
       <c r="AG77">
         <v>0.7285448908805847</v>
       </c>
-      <c r="AH77" t="s">
-        <v>183</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688035</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-0.96</v>
@@ -7373,7 +8741,7 @@
         <v>44648.84</v>
       </c>
       <c r="J78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K78">
         <v>6</v>
@@ -7414,8 +8782,23 @@
       <c r="W78">
         <v>-0.19</v>
       </c>
+      <c r="X78">
+        <v>-3.17</v>
+      </c>
+      <c r="Y78">
+        <v>57.5</v>
+      </c>
+      <c r="Z78">
+        <v>-0.35</v>
+      </c>
       <c r="AC78" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7423,22 +8806,25 @@
       <c r="AG78">
         <v>5.547532558441162</v>
       </c>
-      <c r="AH78" t="s">
-        <v>183</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688048</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>4.1</v>
@@ -7456,7 +8842,7 @@
         <v>102508.04</v>
       </c>
       <c r="J79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K79">
         <v>16</v>
@@ -7497,8 +8883,23 @@
       <c r="W79">
         <v>-0.24</v>
       </c>
+      <c r="X79">
+        <v>-7.29</v>
+      </c>
+      <c r="Y79">
+        <v>80.65000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-2.36</v>
+      </c>
       <c r="AC79" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7506,22 +8907,25 @@
       <c r="AG79">
         <v>-6.783263206481934</v>
       </c>
-      <c r="AH79" t="s">
-        <v>183</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688049</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>1.54</v>
@@ -7539,7 +8943,7 @@
         <v>89506.44</v>
       </c>
       <c r="J80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K80">
         <v>8</v>
@@ -7580,8 +8984,23 @@
       <c r="W80">
         <v>-0.32</v>
       </c>
+      <c r="X80">
+        <v>-2.83</v>
+      </c>
+      <c r="Y80">
+        <v>58.9</v>
+      </c>
+      <c r="Z80">
+        <v>1.67</v>
+      </c>
       <c r="AC80" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7589,22 +9008,25 @@
       <c r="AG80">
         <v>-0.4181875884532928</v>
       </c>
-      <c r="AH80" t="s">
-        <v>183</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688066</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>20</v>
@@ -7622,7 +9044,7 @@
         <v>144258.04</v>
       </c>
       <c r="J81" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7663,8 +9085,23 @@
       <c r="W81">
         <v>1.64</v>
       </c>
+      <c r="X81">
+        <v>14.45</v>
+      </c>
+      <c r="Y81">
+        <v>37.99</v>
+      </c>
+      <c r="Z81">
+        <v>18.79</v>
+      </c>
       <c r="AC81" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
       <c r="AF81">
         <v>1</v>
@@ -7672,22 +9109,25 @@
       <c r="AG81">
         <v>19.1579704284668</v>
       </c>
-      <c r="AH81" t="s">
-        <v>184</v>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688098</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>14.21</v>
@@ -7705,7 +9145,7 @@
         <v>63745.63</v>
       </c>
       <c r="J82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7746,8 +9186,23 @@
       <c r="W82">
         <v>0.47</v>
       </c>
+      <c r="X82">
+        <v>-8.41</v>
+      </c>
+      <c r="Y82">
+        <v>14.57</v>
+      </c>
+      <c r="Z82">
+        <v>0.14</v>
+      </c>
       <c r="AC82" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7755,22 +9210,25 @@
       <c r="AG82">
         <v>2.413334369659424</v>
       </c>
-      <c r="AH82" t="s">
-        <v>183</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688110</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>6.92</v>
@@ -7788,7 +9246,7 @@
         <v>399637.86</v>
       </c>
       <c r="J83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7829,8 +9287,23 @@
       <c r="W83">
         <v>-0.3</v>
       </c>
+      <c r="X83">
+        <v>1.03</v>
+      </c>
+      <c r="Y83">
+        <v>104.45</v>
+      </c>
+      <c r="Z83">
+        <v>6.35</v>
+      </c>
       <c r="AC83" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7838,22 +9311,25 @@
       <c r="AG83">
         <v>-34.51839828491211</v>
       </c>
-      <c r="AH83" t="s">
-        <v>183</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688146</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>1.3</v>
@@ -7871,7 +9347,7 @@
         <v>76279.91</v>
       </c>
       <c r="J84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K84">
         <v>9</v>
@@ -7912,8 +9388,23 @@
       <c r="W84">
         <v>-0.23</v>
       </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>43.19</v>
+      </c>
+      <c r="Z84">
+        <v>2.86</v>
+      </c>
       <c r="AC84" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7921,22 +9412,25 @@
       <c r="AG84">
         <v>1.084858536720276</v>
       </c>
-      <c r="AH84" t="s">
-        <v>183</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688147</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>0.05</v>
@@ -7954,7 +9448,7 @@
         <v>41498.4</v>
       </c>
       <c r="J85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -7995,8 +9489,23 @@
       <c r="W85">
         <v>0.34</v>
       </c>
+      <c r="X85">
+        <v>2.08</v>
+      </c>
+      <c r="Y85">
+        <v>40.46</v>
+      </c>
+      <c r="Z85">
+        <v>3.9</v>
+      </c>
       <c r="AC85" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8004,22 +9513,25 @@
       <c r="AG85">
         <v>1.337463021278381</v>
       </c>
-      <c r="AH85" t="s">
-        <v>183</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688167</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>7.6</v>
@@ -8037,7 +9549,7 @@
         <v>118185.95</v>
       </c>
       <c r="J86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K86">
         <v>14</v>
@@ -8078,8 +9590,23 @@
       <c r="W86">
         <v>0.34</v>
       </c>
+      <c r="X86">
+        <v>-4.96</v>
+      </c>
+      <c r="Y86">
+        <v>138.87</v>
+      </c>
+      <c r="Z86">
+        <v>-0.72</v>
+      </c>
       <c r="AC86" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8087,22 +9614,25 @@
       <c r="AG86">
         <v>0.7820887565612793</v>
       </c>
-      <c r="AH86" t="s">
-        <v>183</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688195</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>2.65</v>
@@ -8120,7 +9650,7 @@
         <v>84983.13</v>
       </c>
       <c r="J87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K87">
         <v>6</v>
@@ -8161,8 +9691,23 @@
       <c r="W87">
         <v>0.71</v>
       </c>
+      <c r="X87">
+        <v>-4.22</v>
+      </c>
+      <c r="Y87">
+        <v>63.93</v>
+      </c>
+      <c r="Z87">
+        <v>0.17</v>
+      </c>
       <c r="AC87" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8170,22 +9715,25 @@
       <c r="AG87">
         <v>3.358657121658325</v>
       </c>
-      <c r="AH87" t="s">
-        <v>184</v>
+      <c r="AH87">
+        <v>1</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688205</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>8.76</v>
@@ -8203,7 +9751,7 @@
         <v>242813.85</v>
       </c>
       <c r="J88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8244,8 +9792,23 @@
       <c r="W88">
         <v>-0.96</v>
       </c>
+      <c r="X88">
+        <v>-4.54</v>
+      </c>
+      <c r="Y88">
+        <v>103.5</v>
+      </c>
+      <c r="Z88">
+        <v>5.24</v>
+      </c>
       <c r="AC88" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8253,22 +9816,25 @@
       <c r="AG88">
         <v>-13.67957878112793</v>
       </c>
-      <c r="AH88" t="s">
-        <v>183</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688270</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>5.1</v>
@@ -8286,7 +9852,7 @@
         <v>129050.55</v>
       </c>
       <c r="J89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K89">
         <v>9</v>
@@ -8327,8 +9893,23 @@
       <c r="W89">
         <v>0.5</v>
       </c>
+      <c r="X89">
+        <v>-2.58</v>
+      </c>
+      <c r="Y89">
+        <v>74</v>
+      </c>
+      <c r="Z89">
+        <v>3.16</v>
+      </c>
       <c r="AC89" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8336,22 +9917,25 @@
       <c r="AG89">
         <v>-0.9321001172065735</v>
       </c>
-      <c r="AH89" t="s">
-        <v>183</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688313</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>10.53</v>
@@ -8369,7 +9953,7 @@
         <v>304194.79</v>
       </c>
       <c r="J90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K90">
         <v>10</v>
@@ -8410,8 +9994,23 @@
       <c r="W90">
         <v>-0.23</v>
       </c>
+      <c r="X90">
+        <v>-1.34</v>
+      </c>
+      <c r="Y90">
+        <v>74.3</v>
+      </c>
+      <c r="Z90">
+        <v>3.8</v>
+      </c>
       <c r="AC90" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8419,22 +10018,25 @@
       <c r="AG90">
         <v>-24.15459632873535</v>
       </c>
-      <c r="AH90" t="s">
-        <v>183</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688372</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-0.87</v>
@@ -8452,7 +10054,7 @@
         <v>111685.11</v>
       </c>
       <c r="J91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K91">
         <v>3</v>
@@ -8493,8 +10095,23 @@
       <c r="W91">
         <v>-1.58</v>
       </c>
+      <c r="X91">
+        <v>0.25</v>
+      </c>
+      <c r="Y91">
+        <v>80.86</v>
+      </c>
+      <c r="Z91">
+        <v>1.18</v>
+      </c>
       <c r="AC91" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>1</v>
@@ -8502,22 +10119,25 @@
       <c r="AG91">
         <v>-1.878819227218628</v>
       </c>
-      <c r="AH91" t="s">
-        <v>183</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688489</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>4.52</v>
@@ -8535,7 +10155,7 @@
         <v>54054.05</v>
       </c>
       <c r="J92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -8576,8 +10196,23 @@
       <c r="W92">
         <v>0.39</v>
       </c>
+      <c r="X92">
+        <v>-6</v>
+      </c>
+      <c r="Y92">
+        <v>56.18</v>
+      </c>
+      <c r="Z92">
+        <v>-1.95</v>
+      </c>
       <c r="AC92" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8585,22 +10220,25 @@
       <c r="AG92">
         <v>3.366684436798096</v>
       </c>
-      <c r="AH92" t="s">
-        <v>183</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688502</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>0.26</v>
@@ -8618,7 +10256,7 @@
         <v>61145.18</v>
       </c>
       <c r="J93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K93">
         <v>21</v>
@@ -8659,8 +10297,23 @@
       <c r="W93">
         <v>-0.3</v>
       </c>
+      <c r="X93">
+        <v>-5.33</v>
+      </c>
+      <c r="Y93">
+        <v>446</v>
+      </c>
+      <c r="Z93">
+        <v>1.57</v>
+      </c>
       <c r="AC93" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8668,22 +10321,25 @@
       <c r="AG93">
         <v>2.222764253616333</v>
       </c>
-      <c r="AH93" t="s">
-        <v>183</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688507</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>7.36</v>
@@ -8701,7 +10357,7 @@
         <v>83841.42</v>
       </c>
       <c r="J94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -8742,8 +10398,23 @@
       <c r="W94">
         <v>-0.7</v>
       </c>
+      <c r="X94">
+        <v>-6.21</v>
+      </c>
+      <c r="Y94">
+        <v>110.5</v>
+      </c>
+      <c r="Z94">
+        <v>-1.03</v>
+      </c>
       <c r="AC94" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8751,22 +10422,25 @@
       <c r="AG94">
         <v>9.102242469787598</v>
       </c>
-      <c r="AH94" t="s">
-        <v>183</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688519</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-0.18</v>
@@ -8784,7 +10458,7 @@
         <v>93225.39999999999</v>
       </c>
       <c r="J95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -8825,8 +10499,23 @@
       <c r="W95">
         <v>0.27</v>
       </c>
+      <c r="X95">
+        <v>-3.91</v>
+      </c>
+      <c r="Y95">
+        <v>82</v>
+      </c>
+      <c r="Z95">
+        <v>8.449999999999999</v>
+      </c>
       <c r="AC95" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8834,22 +10523,25 @@
       <c r="AG95">
         <v>8.945688247680664</v>
       </c>
-      <c r="AH95" t="s">
-        <v>183</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688521</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>0.67</v>
@@ -8867,7 +10559,7 @@
         <v>737948.3100000001</v>
       </c>
       <c r="J96" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -8908,8 +10600,23 @@
       <c r="W96">
         <v>-0.27</v>
       </c>
+      <c r="X96">
+        <v>-9.33</v>
+      </c>
+      <c r="Y96">
+        <v>149.99</v>
+      </c>
+      <c r="Z96">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="AC96" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8917,22 +10624,25 @@
       <c r="AG96">
         <v>11.10454845428467</v>
       </c>
-      <c r="AH96" t="s">
-        <v>183</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688629</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>9.34</v>
@@ -8950,7 +10660,7 @@
         <v>203200.33</v>
       </c>
       <c r="J97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -8991,8 +10701,23 @@
       <c r="W97">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X97">
+        <v>2.7</v>
+      </c>
+      <c r="Y97">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="Z97">
+        <v>18.56</v>
+      </c>
       <c r="AC97" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9000,22 +10725,25 @@
       <c r="AG97">
         <v>4.893259048461914</v>
       </c>
-      <c r="AH97" t="s">
-        <v>183</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688709</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>1.38</v>
@@ -9033,7 +10761,7 @@
         <v>127912.46</v>
       </c>
       <c r="J98" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9074,8 +10802,23 @@
       <c r="W98">
         <v>-0.54</v>
       </c>
+      <c r="X98">
+        <v>-5.03</v>
+      </c>
+      <c r="Y98">
+        <v>46</v>
+      </c>
+      <c r="Z98">
+        <v>-3.54</v>
+      </c>
       <c r="AC98" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9083,22 +10826,25 @@
       <c r="AG98">
         <v>3.116801500320435</v>
       </c>
-      <c r="AH98" t="s">
-        <v>183</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688716</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>2.69</v>
@@ -9116,7 +10862,7 @@
         <v>49154.86</v>
       </c>
       <c r="J99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K99">
         <v>8</v>
@@ -9157,8 +10903,23 @@
       <c r="W99">
         <v>0.24</v>
       </c>
+      <c r="X99">
+        <v>-6.9</v>
+      </c>
+      <c r="Y99">
+        <v>53.21</v>
+      </c>
+      <c r="Z99">
+        <v>-0.54</v>
+      </c>
       <c r="AC99" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9166,22 +10927,25 @@
       <c r="AG99">
         <v>1.624364852905273</v>
       </c>
-      <c r="AH99" t="s">
-        <v>183</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688798</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>1.63</v>
@@ -9199,7 +10963,7 @@
         <v>82008.91</v>
       </c>
       <c r="J100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -9240,8 +11004,23 @@
       <c r="W100">
         <v>-0.2</v>
       </c>
+      <c r="X100">
+        <v>0.06</v>
+      </c>
+      <c r="Y100">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="Z100">
+        <v>2.62</v>
+      </c>
       <c r="AC100" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9249,8 +11028,11 @@
       <c r="AG100">
         <v>-4.405797481536865</v>
       </c>
-      <c r="AH100" t="s">
-        <v>183</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
